--- a/biology/Médecine/CIM-10_Chapitre_03___Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire/CIM-10_Chapitre_03___Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_03___Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire/CIM-10_Chapitre_03___Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_h%C3%A9matopo%C3%AF%C3%A9tiques_et_certains_troubles_du_syst%C3%A8me_immunitaire</t>
+          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le Chapitre 03 : Maladies du sang et des organes hématopoïétiques et certains troubles du système immunitaire de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le Chapitre 03 : Maladies du sang et des organes hématopoïétiques et certains troubles du système immunitaire de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_h%C3%A9matopo%C3%AF%C3%A9tiques_et_certains_troubles_du_syst%C3%A8me_immunitaire</t>
+          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CIM-10 Chapitre 03 : Maladies du sang et des organes hématopoïétiques et certains troubles du système immunitaire (D50-D89)
-(D50-D53) Anémies nutritionnelles
-(D50) Anémie par carence en fer
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CIM-10 Chapitre 03 : Maladies du sang et des organes hématopoïétiques et certains troubles du système immunitaire (D50-D89)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_h%C3%A9matopo%C3%AF%C3%A9tiques_et_certains_troubles_du_syst%C3%A8me_immunitaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(D50-D53) Anémies nutritionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(D50) Anémie par carence en fer
 (D50.0) Anémie par carence en fer secondaire à une perte de sang (chronique)
 (D50.1) Dysphagie sidéropénique
 (D50.8) Autres anémies par carence en fer
@@ -537,9 +586,43 @@
 (D53.1) Autres anémies mégaloblastiques, non classées ailleurs
 (D53.2) Anémie scorbutique
 (D53.8) Autres anémies nutritionnelles précisées
-(D53.9) Anémie nutritionnelle, sans précision
-(D55-D59) Anémies hémolytiques
-(D55) Anémie due à des anomalies enzymatiques
+(D53.9) Anémie nutritionnelle, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_h%C3%A9matopo%C3%AF%C3%A9tiques_et_certains_troubles_du_syst%C3%A8me_immunitaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(D55-D59) Anémies hémolytiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(D55) Anémie due à des anomalies enzymatiques
 (D55.0) Anémie due à une carence en glucose-6-phosphate déshydrogénase [G6PD]
 (D55.1) Anémie due à d'autres anomalies du métabolisme du glutathion
 (D55.2) Anémie due à des anomalies des enzymes glycolytiques
@@ -575,9 +658,43 @@
 (D59.5) Hémoglobinurie nocturne paroxystique [Marchiafava-Micheli]
 (D59.6) Hémoglobinurie due à une hémolyse relevant d'autres causes externes
 (D59.8) Autres anémies hémolytiques acquises
-(D59.9) Anémie hémolytique acquise, sans précision
-(D60-D64) Aplasies médullaires et autres anémies
-(D60) Aplasie médullaire acquise pure [érythroblastopénie]
+(D59.9) Anémie hémolytique acquise, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_h%C3%A9matopo%C3%AF%C3%A9tiques_et_certains_troubles_du_syst%C3%A8me_immunitaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(D60-D64) Aplasies médullaires et autres anémies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(D60) Aplasie médullaire acquise pure [érythroblastopénie]
 (D60.0) Aplasie médullaire acquise pure, chronique
 (D60.1) Aplasie médullaire acquise pure, transitoire
 (D60.8) Autres aplasies médullaires acquises pures
@@ -600,9 +717,43 @@
 (D64.3) Autres anémies sidéroblastiques
 (D64.4) Anémie dysérythropoïétique congénitale
 (D64.8) Autres anémies précisées
-(D64.9) Anémie, sans précision
-(D65-D69) Anomalies de la coagulation, purpura et autres affections hémorragiques
-(D65) Coagulation intravasculaire disséminée (syndrome de défibrination)
+(D64.9) Anémie, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_h%C3%A9matopo%C3%AF%C3%A9tiques_et_certains_troubles_du_syst%C3%A8me_immunitaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(D65-D69) Anomalies de la coagulation, purpura et autres affections hémorragiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(D65) Coagulation intravasculaire disséminée (syndrome de défibrination)
 (D66) Carence héréditaire en facteur VIII
 (D67) Carence héréditaire en facteur IX
 (D68) Autres anomalies de la coagulation
@@ -622,9 +773,43 @@
 (D69.5) Thrombopénie secondaire
 (D69.6) Thrombopénie, sans précision
 (D69.8) Autres affections hémorragiques précisées
-(D69.9) Affection hémorragique, sans précision
-(D70-D77) Autres maladies du sang et des organes hématopoïétiques
-(D70) Agranulocytose
+(D69.9) Affection hémorragique, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_h%C3%A9matopo%C3%AF%C3%A9tiques_et_certains_troubles_du_syst%C3%A8me_immunitaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(D70-D77) Autres maladies du sang et des organes hématopoïétiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(D70) Agranulocytose
 (D71) Anomalies fonctionnelles des granulocytes neutrophiles
 (D72) Autres anomalies des leucocytes
 (D72.0) Anomalies génétiques des leucocytes
@@ -655,9 +840,43 @@
 (D76.1) Lymphohistiocytose hémophagocytaire
 (D76.2) Syndrome hémophagocytaire associé à une infection
 (D76.3) Autres syndromes histiocytaires
-(D77*) Autres maladies du sang et des organes hématopoïétiques au cours de maladies classées ailleurs
-(D80-D89) Certaines anomalies du système immunitaire
-(D80) Déficit immunitaire avec déficit prédominant de la production d'anticorps
+(D77*) Autres maladies du sang et des organes hématopoïétiques au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_hématopoïétiques_et_certains_troubles_du_système_immunitaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_03_:_Maladies_du_sang_et_des_organes_h%C3%A9matopo%C3%AF%C3%A9tiques_et_certains_troubles_du_syst%C3%A8me_immunitaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(D80-D89) Certaines anomalies du système immunitaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(D80) Déficit immunitaire avec déficit prédominant de la production d'anticorps
 (D80.0) Hypogammaglobulinémie héréditaire
 (D80.1) Hypogammaglobulinémie non familiale
 (D80.2) Déficit sélectif en immunoglobuline A (IgA)
